--- a/biology/Botanique/Trèfle_rouge/Trèfle_rouge.xlsx
+++ b/biology/Botanique/Trèfle_rouge/Trèfle_rouge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tr%C3%A8fle_rouge</t>
+          <t>Trèfle_rouge</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -488,7 +500,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tr%C3%A8fle_rouge</t>
+          <t>Trèfle_rouge</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -506,7 +518,9 @@
           <t>Botanique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Trèfle rouge est un nom vernaculaire qui peut être donné spontanément à la plupart des espèces de trèfles dont les fleurs sont rouges, pourpres ou roses. Néanmoins, malgré un nombre important de telles espèces de trèfles à fleurs rouges, l'appellation trèfle rouge est réservée généralement :
 à Trifolium rubens, nommé également Trèfle rougeâtre (rubens : rouge, en latin)
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tr%C3%A8fle_rouge</t>
+          <t>Trèfle_rouge</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,7 +552,9 @@
           <t>Confusion possible</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour les non-spécialistes, il peut être confondu avec le trèfle incarnat (espèce cultivée), qui a cependant des fleurs pourpres, nettement différentes.
 </t>
@@ -551,7 +567,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tr%C3%A8fle_rouge</t>
+          <t>Trèfle_rouge</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -569,7 +585,9 @@
           <t>Cinéma</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Nick Carter et le trèfle rouge est un film franco-italien d'espionnage de 1965, réalisé par Jean-Paul Savignac avec Eddie Constantine.
  Portail de la botanique                     </t>
